--- a/tests/test_xls/sheet_txns_pivot/test_foreach/test_foreach_account/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_foreach/test_foreach_account/expected_result.xlsx
@@ -506,22 +506,22 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>77451.77</v>
+        <v>57327.05</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>79260.99000000001</v>
+        <v>69089.91</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>61175.43</v>
+        <v>46505.97</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>97452.99000000001</v>
+        <v>68042.99000000001</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>82544.28999999999</v>
+        <v>97647.47</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>397885.47</v>
+        <v>338613.39</v>
       </c>
     </row>
     <row r="3">
@@ -531,22 +531,22 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>-14249.09</v>
+        <v>-11891.18</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>-19678.52</v>
+        <v>-20277.56</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-11332.62</v>
+        <v>-16132.08</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>-17478.59</v>
+        <v>-18620.19</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>-9956.629999999999</v>
+        <v>-13311.51</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>-72695.45</v>
+        <v>-80232.52</v>
       </c>
     </row>
     <row r="4">
@@ -556,22 +556,22 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-24552.83</v>
+        <v>-28564.63</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-24956.51</v>
+        <v>-29994.23</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-30160.03</v>
+        <v>-27644.43</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>-22044.21</v>
+        <v>-29930.08</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-34507.96</v>
+        <v>-24965.85</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>-136221.54</v>
+        <v>-141099.22</v>
       </c>
     </row>
     <row r="5">
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-198609.51</v>
+        <v>-196582.08</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-192315.97</v>
+        <v>-188143.44</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-185663.38</v>
+        <v>-185434.74</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-196015.76</v>
+        <v>-205682.74</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-196653.19</v>
+        <v>-189920.85</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-969257.8100000001</v>
+        <v>-965763.85</v>
       </c>
     </row>
     <row r="6">
@@ -606,22 +606,22 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-16849.53</v>
+        <v>-18135.67</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-12233.2</v>
+        <v>-16482.58</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-20430.51</v>
+        <v>-15629.56</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-17959.24</v>
+        <v>-19907.67</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-11888.14</v>
+        <v>-12846.96</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-79360.62</v>
+        <v>-83002.44</v>
       </c>
     </row>
     <row r="7">
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>78455.41</v>
+        <v>81716.10000000001</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>88341.75999999999</v>
+        <v>76255.21000000001</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>87689.64</v>
+        <v>76187.89999999999</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>130019.21</v>
+        <v>68580.99000000001</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81024.71000000001</v>
+        <v>110584.34</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>465530.73</v>
+        <v>413324.54</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>-98353.78</v>
+        <v>-116130.41</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>-81581.45</v>
+        <v>-109552.69</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>-98721.47</v>
+        <v>-122146.94</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>-26025.6</v>
+        <v>-137516.7</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>-89436.92</v>
+        <v>-32813.36</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>-394119.22</v>
+        <v>-518160.1</v>
       </c>
     </row>
   </sheetData>
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>-23654.37</v>
+        <v>-21053.09</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>-14998.55</v>
+        <v>-21186.22</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>-18380.8</v>
+        <v>-18976.53</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>-22753.05</v>
+        <v>-16493.13</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>-14051.05</v>
+        <v>-13038.53</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>-93837.82000000001</v>
+        <v>-90747.5</v>
       </c>
     </row>
     <row r="3">
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>-16309.68</v>
+        <v>-15939.19</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>-16604.43</v>
+        <v>-16646</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-18324.89</v>
+        <v>-21687.32</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>-15577.94</v>
+        <v>-21682.89</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>-23603.63</v>
+        <v>-14987.77</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>-90420.57000000001</v>
+        <v>-90943.17</v>
       </c>
     </row>
     <row r="4">
@@ -789,22 +789,22 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-10158.8</v>
+        <v>-9200.950000000001</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-11682.56</v>
+        <v>-10266.23</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-6266.99</v>
+        <v>-8645.75</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>-8680.24</v>
+        <v>-5122.05</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-11529.27</v>
+        <v>-7230.53</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>-48317.86</v>
+        <v>-40465.51</v>
       </c>
     </row>
     <row r="5">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-23414.62</v>
+        <v>-21959.62</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-18079.97</v>
+        <v>-23666.99</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-17337.77</v>
+        <v>-16347.16</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-19578.85</v>
+        <v>-19788.41</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-16477.11</v>
+        <v>-20591.47</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-94888.32000000001</v>
+        <v>-102353.65</v>
       </c>
     </row>
     <row r="6">
@@ -839,22 +839,22 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-24302.5</v>
+        <v>-28553.76</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-25202.98</v>
+        <v>-21922.47</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-26147.86</v>
+        <v>-27965.68</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-19939.66</v>
+        <v>-37691.46</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-23641.77</v>
+        <v>-27734.45</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-119234.77</v>
+        <v>-143867.82</v>
       </c>
     </row>
     <row r="7">
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>97839.97</v>
+        <v>96706.61</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>86568.49000000001</v>
+        <v>93687.91</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86458.31</v>
+        <v>93622.44</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>86529.74000000001</v>
+        <v>100777.94</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>89302.83</v>
+        <v>83582.75</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>446699.34</v>
+        <v>468377.65</v>
       </c>
     </row>
     <row r="8">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>405743.87</v>
+        <v>452802.19</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>471555.5</v>
+        <v>439948.04</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>487534.98</v>
+        <v>521104.54</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>493650.42</v>
+        <v>400785.61</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>402524.61</v>
+        <v>439761.29</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>2261009.38</v>
+        <v>2254401.67</v>
       </c>
     </row>
     <row r="3">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>12613.08</v>
+        <v>9349.23</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>13935.54</v>
+        <v>9672.219999999999</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>10470.06</v>
+        <v>7688.38</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>20222.05</v>
+        <v>8537.84</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>13281.24</v>
+        <v>19512.25</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>70521.97</v>
+        <v>54759.92</v>
       </c>
     </row>
     <row r="4">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B4" s="7" t="n">
-        <v>418356.95</v>
+        <v>462151.42</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>485491.04</v>
+        <v>449620.26</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>498005.04</v>
+        <v>528792.92</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>513872.47</v>
+        <v>409323.45</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>415805.85</v>
+        <v>459273.54</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>2331531.35</v>
+        <v>2309161.59</v>
       </c>
     </row>
   </sheetData>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>-24997.31</v>
+        <v>-17862.78</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>-16944.57</v>
+        <v>-21699.55</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>-24030.28</v>
+        <v>-19316.53</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>-19881.67</v>
+        <v>-15460.94</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>-22009.7</v>
+        <v>-15935.42</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>-107863.53</v>
+        <v>-90275.22</v>
       </c>
     </row>
     <row r="3">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>-14867.21</v>
+        <v>-20413.86</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>-20460.14</v>
+        <v>-13811.38</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-15589.91</v>
+        <v>-17132.09</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>-17041.36</v>
+        <v>-17263.2</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>-18317.79</v>
+        <v>-19442.3</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>-86276.41</v>
+        <v>-88062.83</v>
       </c>
     </row>
     <row r="4">
@@ -1155,22 +1155,22 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-6620.45</v>
+        <v>-2665.66</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-12298.7</v>
+        <v>-10078.34</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-9148.190000000001</v>
+        <v>-6792.99</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>-4722.79</v>
+        <v>-9886.1</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-6978.53</v>
+        <v>-10830.72</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>-39768.66</v>
+        <v>-40253.81</v>
       </c>
     </row>
     <row r="5">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-15956.05</v>
+        <v>-20200.8</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-22650.89</v>
+        <v>-16641.67</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-15942.86</v>
+        <v>-14819.89</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-16350.32</v>
+        <v>-18004.1</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-19678.33</v>
+        <v>-18488.93</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-90578.45</v>
+        <v>-88155.39</v>
       </c>
     </row>
     <row r="6">
@@ -1205,22 +1205,22 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-25715.44</v>
+        <v>-29383.14</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-19457.64</v>
+        <v>-22552.37</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-24023.77</v>
+        <v>-26062.42</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-31267.83</v>
+        <v>-35752.62</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-27084.77</v>
+        <v>-22128.48</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-127549.45</v>
+        <v>-135879.03</v>
       </c>
     </row>
     <row r="7">
@@ -1230,22 +1230,22 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>88156.46000000001</v>
+        <v>90526.24000000001</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>91811.94</v>
+        <v>84783.31</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88735.00999999999</v>
+        <v>84123.92</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>89263.97</v>
+        <v>96366.96000000001</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>94069.12</v>
+        <v>86825.85000000001</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>452036.5</v>
+        <v>442626.28</v>
       </c>
     </row>
     <row r="8">
